--- a/docs/references.xlsx
+++ b/docs/references.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Dockerfile Commands</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>api</t>
+  </si>
+  <si>
+    <t>ejs</t>
+  </si>
+  <si>
+    <t>https://github.com/visionmedia/ejs#includes</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D17"/>
+  <dimension ref="A3:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,12 +475,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -484,6 +500,7 @@
     <hyperlink ref="D11" r:id="rId3"/>
     <hyperlink ref="D16" r:id="rId4"/>
     <hyperlink ref="D17" r:id="rId5"/>
+    <hyperlink ref="D20" r:id="rId6" location="includes" display="https://github.com/visionmedia/ejs - includes"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/references.xlsx
+++ b/docs/references.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Dockerfile Commands</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>https://github.com/visionmedia/ejs#includes</t>
+  </si>
+  <si>
+    <t>node.js</t>
+  </si>
+  <si>
+    <t>async</t>
+  </si>
+  <si>
+    <t>http://www.sebastianseilund.com/nodejs-async-in-practice</t>
+  </si>
+  <si>
+    <t>http://javascriptplayground.com/blog/2013/06/think-async/</t>
+  </si>
+  <si>
+    <t>http://jsfiddle.net/qRmE4/1/</t>
   </si>
 </sst>
 </file>
@@ -416,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D20"/>
+  <dimension ref="A3:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +508,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -501,6 +539,9 @@
     <hyperlink ref="D16" r:id="rId4"/>
     <hyperlink ref="D17" r:id="rId5"/>
     <hyperlink ref="D20" r:id="rId6" location="includes" display="https://github.com/visionmedia/ejs - includes"/>
+    <hyperlink ref="D23" r:id="rId7"/>
+    <hyperlink ref="D24" r:id="rId8"/>
+    <hyperlink ref="D25" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/references.xlsx
+++ b/docs/references.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Dockerfile Commands</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>http://jsfiddle.net/qRmE4/1/</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>http://blog.docker.io/2013/07/how-to-use-your-own-registry/</t>
   </si>
 </sst>
 </file>
@@ -433,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,6 +470,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
@@ -542,6 +556,7 @@
     <hyperlink ref="D23" r:id="rId7"/>
     <hyperlink ref="D24" r:id="rId8"/>
     <hyperlink ref="D25" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/references.xlsx
+++ b/docs/references.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="17115" windowHeight="9465"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15456" windowHeight="9468"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Dockerfile Commands</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>http://blog.docker.io/2013/07/how-to-use-your-own-registry/</t>
+  </si>
+  <si>
+    <t>methodOverride</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/8378338/what-does-connect-js-methodoverride-do</t>
   </si>
 </sst>
 </file>
@@ -440,21 +446,21 @@
   <dimension ref="A3:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -478,12 +484,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -491,12 +497,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -504,7 +510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
@@ -512,22 +518,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
@@ -535,12 +549,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
         <v>19</v>
       </c>
@@ -557,6 +571,7 @@
     <hyperlink ref="D24" r:id="rId8"/>
     <hyperlink ref="D25" r:id="rId9"/>
     <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="D18" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -568,7 +583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -580,7 +595,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/references.xlsx
+++ b/docs/references.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15456" windowHeight="9468"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15450" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Dockerfile Commands</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>http://stackoverflow.com/questions/8378338/what-does-connect-js-methodoverride-do</t>
+  </si>
+  <si>
+    <t>Serer Load</t>
+  </si>
+  <si>
+    <t>http://blog.scoutapp.com/articles/2009/07/31/understanding-load-averages</t>
   </si>
 </sst>
 </file>
@@ -443,24 +449,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D25"/>
+  <dimension ref="A3:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -484,12 +490,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -497,12 +503,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -510,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
@@ -518,7 +524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
@@ -526,22 +532,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
@@ -549,14 +555,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -572,6 +588,7 @@
     <hyperlink ref="D25" r:id="rId9"/>
     <hyperlink ref="D6" r:id="rId10"/>
     <hyperlink ref="D18" r:id="rId11"/>
+    <hyperlink ref="D28" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -583,7 +600,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -595,7 +612,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
